--- a/data/trans_orig/IP07A26_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A26_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B56864B-967C-4529-8508-075D7E023B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1FEDAF5-3444-4084-B0EE-9B890CA8F3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6D150823-7F1D-432A-B5DE-59A51F8E9B8B}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{21E33F4D-E490-4B16-A51A-AEA20B76CB5D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -68,27 +68,207 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
     <t>6,42%</t>
   </si>
   <si>
@@ -116,33 +296,6 @@
     <t>6,62%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
     <t>34,1%</t>
   </si>
   <si>
@@ -170,33 +323,6 @@
     <t>37,81%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
     <t>54,06%</t>
   </si>
   <si>
@@ -224,130 +350,52 @@
     <t>61,15%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
   </si>
   <si>
     <t>6,45%</t>
@@ -377,27 +425,6 @@
     <t>6,4%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
     <t>33,94%</t>
   </si>
   <si>
@@ -423,33 +450,6 @@
   </si>
   <si>
     <t>37,38%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
   </si>
   <si>
     <t>54,37%</t>
@@ -868,7 +868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9B1913-70D6-4CB4-8FDD-0EE5ACCEF111}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C19FBF-0E66-42E0-949A-515F9172B851}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1258,10 +1258,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>22530</v>
+        <v>1904</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1273,10 +1273,10 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>9532</v>
+        <v>2813</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>20</v>
@@ -1288,10 +1288,10 @@
         <v>22</v>
       </c>
       <c r="M10" s="7">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>32062</v>
+        <v>4718</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>23</v>
@@ -1309,49 +1309,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>5411</v>
+        <v>1046</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3045</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1046</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="7">
-        <v>10</v>
-      </c>
-      <c r="N11" s="7">
-        <v>8455</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1360,49 +1360,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>119601</v>
+        <v>4438</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1164</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>8</v>
+      </c>
+      <c r="N12" s="7">
+        <v>5603</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="7">
-        <v>125</v>
-      </c>
-      <c r="I12" s="7">
-        <v>98188</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="7">
-        <v>259</v>
-      </c>
-      <c r="N12" s="7">
-        <v>217789</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1411,49 +1411,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7">
-        <v>13598</v>
+        <v>22370</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="7">
+        <v>26</v>
+      </c>
+      <c r="I13" s="7">
+        <v>20052</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>52</v>
+      </c>
+      <c r="N13" s="7">
+        <v>42422</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4745</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M13" s="7">
-        <v>18</v>
-      </c>
-      <c r="N13" s="7">
-        <v>18343</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1462,49 +1462,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>230</v>
+        <v>45</v>
       </c>
       <c r="D14" s="7">
-        <v>189585</v>
+        <v>37837</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="7">
+        <v>51</v>
+      </c>
+      <c r="I14" s="7">
+        <v>38424</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>96</v>
+      </c>
+      <c r="N14" s="7">
+        <v>76261</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="7">
-        <v>242</v>
-      </c>
-      <c r="I14" s="7">
-        <v>182475</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" s="7">
-        <v>472</v>
-      </c>
-      <c r="N14" s="7">
-        <v>372060</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1513,102 +1513,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>408</v>
+        <v>80</v>
       </c>
       <c r="D15" s="7">
-        <v>350725</v>
+        <v>67597</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
-        <v>393</v>
+        <v>82</v>
       </c>
       <c r="I15" s="7">
-        <v>297985</v>
+        <v>62453</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
-        <v>801</v>
+        <v>162</v>
       </c>
       <c r="N15" s="7">
-        <v>648710</v>
+        <v>130050</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>4438</v>
+        <v>13598</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="7">
+        <v>7</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4745</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>18</v>
+      </c>
+      <c r="N16" s="7">
+        <v>18343</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1164</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M16" s="7">
-        <v>8</v>
-      </c>
-      <c r="N16" s="7">
-        <v>5603</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1617,49 +1617,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>1046</v>
+        <v>5411</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="7">
+        <v>4</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3045</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>10</v>
+      </c>
+      <c r="N17" s="7">
+        <v>8455</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1046</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,49 +1668,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="7">
-        <v>22370</v>
+        <v>22530</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>15</v>
+      </c>
+      <c r="I18" s="7">
+        <v>9532</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H18" s="7">
-        <v>26</v>
-      </c>
-      <c r="I18" s="7">
-        <v>20052</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>42</v>
+      </c>
+      <c r="N18" s="7">
+        <v>32062</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M18" s="7">
-        <v>52</v>
-      </c>
-      <c r="N18" s="7">
-        <v>42422</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,49 +1719,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>134</v>
       </c>
       <c r="D19" s="7">
-        <v>1904</v>
+        <v>119601</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>125</v>
+      </c>
+      <c r="I19" s="7">
+        <v>98188</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2813</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>259</v>
+      </c>
+      <c r="N19" s="7">
+        <v>217789</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="M19" s="7">
-        <v>5</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4718</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1770,10 +1770,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="D20" s="7">
-        <v>37837</v>
+        <v>189585</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>95</v>
@@ -1785,10 +1785,10 @@
         <v>97</v>
       </c>
       <c r="H20" s="7">
-        <v>51</v>
+        <v>242</v>
       </c>
       <c r="I20" s="7">
-        <v>38424</v>
+        <v>182475</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>98</v>
@@ -1800,10 +1800,10 @@
         <v>100</v>
       </c>
       <c r="M20" s="7">
-        <v>96</v>
+        <v>472</v>
       </c>
       <c r="N20" s="7">
-        <v>76261</v>
+        <v>372060</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>101</v>
@@ -1821,49 +1821,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>80</v>
+        <v>408</v>
       </c>
       <c r="D21" s="7">
-        <v>67597</v>
+        <v>350725</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="I21" s="7">
-        <v>62453</v>
+        <v>297985</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>162</v>
+        <v>801</v>
       </c>
       <c r="N21" s="7">
-        <v>130050</v>
+        <v>648710</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,10 +1874,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D22" s="7">
-        <v>26968</v>
+        <v>15502</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>104</v>
@@ -1889,10 +1889,10 @@
         <v>106</v>
       </c>
       <c r="H22" s="7">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I22" s="7">
-        <v>10697</v>
+        <v>7559</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>107</v>
@@ -1904,10 +1904,10 @@
         <v>109</v>
       </c>
       <c r="M22" s="7">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="N22" s="7">
-        <v>37665</v>
+        <v>23061</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>110</v>
@@ -1931,7 +1931,7 @@
         <v>6457</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>113</v>
@@ -1976,10 +1976,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>160</v>
+        <v>33</v>
       </c>
       <c r="D24" s="7">
-        <v>141972</v>
+        <v>26968</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>120</v>
@@ -1991,10 +1991,10 @@
         <v>122</v>
       </c>
       <c r="H24" s="7">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="I24" s="7">
-        <v>118239</v>
+        <v>10697</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>123</v>
@@ -2006,10 +2006,10 @@
         <v>125</v>
       </c>
       <c r="M24" s="7">
-        <v>311</v>
+        <v>50</v>
       </c>
       <c r="N24" s="7">
-        <v>260211</v>
+        <v>37665</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>126</v>
@@ -2027,10 +2027,10 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="D25" s="7">
-        <v>15502</v>
+        <v>141972</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>129</v>
@@ -2042,10 +2042,10 @@
         <v>131</v>
       </c>
       <c r="H25" s="7">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="I25" s="7">
-        <v>7559</v>
+        <v>118239</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>132</v>
@@ -2057,10 +2057,10 @@
         <v>134</v>
       </c>
       <c r="M25" s="7">
-        <v>23</v>
+        <v>311</v>
       </c>
       <c r="N25" s="7">
-        <v>23061</v>
+        <v>260211</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>135</v>
@@ -2135,13 +2135,13 @@
         <v>418322</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>475</v>
@@ -2150,13 +2150,13 @@
         <v>360438</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>963</v>
@@ -2165,13 +2165,13 @@
         <v>778760</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A26_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A26_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1FEDAF5-3444-4084-B0EE-9B890CA8F3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15DAC849-CEB9-400B-835D-022B83842453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{21E33F4D-E490-4B16-A51A-AEA20B76CB5D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3C022D39-ABB8-43C8-B0CD-F61AD7D56835}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="152">
   <si>
     <t>Menores según frecuencia de poder prestar atención en 2023 (Tasa respuesta: 50,16%)</t>
   </si>
@@ -65,418 +65,433 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
   </si>
   <si>
     <t>2,82%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
   </si>
   <si>
     <t>4,5%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -487,7 +502,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -583,39 +598,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -667,7 +682,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -778,13 +793,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -793,6 +801,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -857,19 +872,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C19FBF-0E66-42E0-949A-515F9172B851}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123C5C60-015F-495B-9860-90BBF42F528C}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1258,49 +1293,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1904</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>5</v>
-      </c>
-      <c r="N10" s="7">
-        <v>4718</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1309,49 +1338,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1046</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1046</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1360,49 +1383,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>6</v>
-      </c>
-      <c r="D12" s="7">
-        <v>4438</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1164</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>8</v>
-      </c>
-      <c r="N12" s="7">
-        <v>5603</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1411,49 +1428,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
-      </c>
-      <c r="D13" s="7">
-        <v>22370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>26</v>
-      </c>
-      <c r="I13" s="7">
-        <v>20052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>52</v>
-      </c>
-      <c r="N13" s="7">
-        <v>42422</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1462,49 +1473,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>45</v>
-      </c>
-      <c r="D14" s="7">
-        <v>37837</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>51</v>
-      </c>
-      <c r="I14" s="7">
-        <v>38424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>96</v>
-      </c>
-      <c r="N14" s="7">
-        <v>76261</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1513,102 +1518,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>80</v>
-      </c>
-      <c r="D15" s="7">
-        <v>67597</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>82</v>
-      </c>
-      <c r="I15" s="7">
-        <v>62453</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>162</v>
-      </c>
-      <c r="N15" s="7">
-        <v>130050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="D16" s="7">
-        <v>13598</v>
+        <v>94909</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="I16" s="7">
-        <v>4745</v>
+        <v>79713</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="N16" s="7">
-        <v>18343</v>
+        <v>174622</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1617,49 +1616,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="D17" s="7">
-        <v>5411</v>
+        <v>53067</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="I17" s="7">
-        <v>3045</v>
+        <v>43269</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="N17" s="7">
-        <v>8455</v>
+        <v>96336</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,49 +1667,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D18" s="7">
-        <v>22530</v>
+        <v>9859</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I18" s="7">
-        <v>9532</v>
+        <v>4489</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
+        <v>21</v>
+      </c>
+      <c r="N18" s="7">
+        <v>14348</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="7">
-        <v>32062</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="P18" s="7" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,49 +1718,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>134</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>119601</v>
+        <v>1046</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>125</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>98188</v>
+        <v>1752</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7">
-        <v>259</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>217789</v>
+        <v>2799</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1770,49 +1769,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>230</v>
+        <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>189585</v>
+        <v>4758</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
-        <v>242</v>
+        <v>5</v>
       </c>
       <c r="I20" s="7">
-        <v>182475</v>
+        <v>3749</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="M20" s="7">
-        <v>472</v>
+        <v>10</v>
       </c>
       <c r="N20" s="7">
-        <v>372060</v>
+        <v>8507</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1821,102 +1820,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>408</v>
+        <v>195</v>
       </c>
       <c r="D21" s="7">
-        <v>350725</v>
+        <v>163639</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
-        <v>393</v>
+        <v>176</v>
       </c>
       <c r="I21" s="7">
-        <v>297985</v>
+        <v>132973</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
-        <v>801</v>
+        <v>371</v>
       </c>
       <c r="N21" s="7">
-        <v>648710</v>
+        <v>296612</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="D22" s="7">
-        <v>15502</v>
+        <v>132514</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="H22" s="7">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="I22" s="7">
-        <v>7559</v>
+        <v>141186</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="M22" s="7">
-        <v>23</v>
+        <v>348</v>
       </c>
       <c r="N22" s="7">
-        <v>23061</v>
+        <v>273699</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,49 +1924,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="D23" s="7">
-        <v>6457</v>
+        <v>88905</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="H23" s="7">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="I23" s="7">
-        <v>3045</v>
+        <v>74970</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="M23" s="7">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="N23" s="7">
-        <v>9502</v>
+        <v>163875</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,49 +1975,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D24" s="7">
-        <v>26968</v>
+        <v>17109</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="H24" s="7">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I24" s="7">
-        <v>10697</v>
+        <v>6208</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="M24" s="7">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="N24" s="7">
-        <v>37665</v>
+        <v>23317</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,49 +2026,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>141972</v>
+        <v>5411</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="H25" s="7">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>118239</v>
+        <v>1292</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="M25" s="7">
-        <v>311</v>
+        <v>8</v>
       </c>
       <c r="N25" s="7">
-        <v>260211</v>
+        <v>6703</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2078,49 +2077,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>275</v>
+        <v>8</v>
       </c>
       <c r="D26" s="7">
-        <v>227423</v>
+        <v>10744</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="H26" s="7">
-        <v>293</v>
+        <v>5</v>
       </c>
       <c r="I26" s="7">
-        <v>220899</v>
+        <v>3809</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="M26" s="7">
-        <v>568</v>
+        <v>13</v>
       </c>
       <c r="N26" s="7">
-        <v>448321</v>
+        <v>14554</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2129,55 +2128,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>293</v>
+      </c>
+      <c r="D27" s="7">
+        <v>254684</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="7">
+        <v>299</v>
+      </c>
+      <c r="I27" s="7">
+        <v>227465</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M27" s="7">
+        <v>592</v>
+      </c>
+      <c r="N27" s="7">
+        <v>482148</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>275</v>
+      </c>
+      <c r="D28" s="7">
+        <v>227423</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" s="7">
+        <v>293</v>
+      </c>
+      <c r="I28" s="7">
+        <v>220899</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M28" s="7">
+        <v>568</v>
+      </c>
+      <c r="N28" s="7">
+        <v>448321</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>160</v>
+      </c>
+      <c r="D29" s="7">
+        <v>141972</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H29" s="7">
+        <v>151</v>
+      </c>
+      <c r="I29" s="7">
+        <v>118239</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M29" s="7">
+        <v>311</v>
+      </c>
+      <c r="N29" s="7">
+        <v>260211</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>33</v>
+      </c>
+      <c r="D30" s="7">
+        <v>26968</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" s="7">
+        <v>17</v>
+      </c>
+      <c r="I30" s="7">
+        <v>10697</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M30" s="7">
+        <v>50</v>
+      </c>
+      <c r="N30" s="7">
+        <v>37665</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>7</v>
+      </c>
+      <c r="D31" s="7">
+        <v>6457</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" s="7">
+        <v>4</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3045</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M31" s="7">
+        <v>11</v>
+      </c>
+      <c r="N31" s="7">
+        <v>9502</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>13</v>
+      </c>
+      <c r="D32" s="7">
+        <v>15502</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" s="7">
+        <v>10</v>
+      </c>
+      <c r="I32" s="7">
+        <v>7559</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M32" s="7">
+        <v>23</v>
+      </c>
+      <c r="N32" s="7">
+        <v>23061</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>488</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>418322</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="7">
         <v>475</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>360438</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M33" s="7">
         <v>963</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>778760</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>57</v>
+      <c r="O33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07A26_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A26_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15DAC849-CEB9-400B-835D-022B83842453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46072310-3922-4C30-8BF0-5A569A36DD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3C022D39-ABB8-43C8-B0CD-F61AD7D56835}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AC11A3B3-739D-4602-BE51-0FBB5C77D54C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="151">
   <si>
     <t>Menores según frecuencia de poder prestar atención en 2023 (Tasa respuesta: 50,16%)</t>
   </si>
@@ -95,400 +95,397 @@
     <t>58,0%</t>
   </si>
   <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
   </si>
   <si>
     <t>59,95%</t>
   </si>
   <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
   </si>
   <si>
     <t>58,87%</t>
   </si>
   <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
   </si>
   <si>
     <t>32,43%</t>
   </si>
   <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
   </si>
   <si>
     <t>32,54%</t>
   </si>
   <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
   </si>
   <si>
     <t>32,48%</t>
   </si>
   <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
   </si>
   <si>
     <t>2,1%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -903,7 +900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123C5C60-015F-495B-9860-90BBF42F528C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD47B605-721F-4618-80D3-1AA0A26A6374}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2244,7 +2241,7 @@
         <v>117</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="H29" s="7">
         <v>151</v>
@@ -2253,13 +2250,13 @@
         <v>118239</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M29" s="7">
         <v>311</v>
@@ -2268,13 +2265,13 @@
         <v>260211</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,13 +2286,13 @@
         <v>26968</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H30" s="7">
         <v>17</v>
@@ -2304,13 +2301,13 @@
         <v>10697</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M30" s="7">
         <v>50</v>
@@ -2322,10 +2319,10 @@
         <v>42</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,13 +2337,13 @@
         <v>6457</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -2355,13 +2352,13 @@
         <v>3045</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M31" s="7">
         <v>11</v>
@@ -2370,13 +2367,13 @@
         <v>9502</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,13 +2388,13 @@
         <v>15502</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H32" s="7">
         <v>10</v>
@@ -2406,13 +2403,13 @@
         <v>7559</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M32" s="7">
         <v>23</v>
@@ -2421,13 +2418,13 @@
         <v>23061</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,7 +2480,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A26_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A26_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46072310-3922-4C30-8BF0-5A569A36DD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7782FDF7-D6C7-4BAE-8C87-BEAF8C34F5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AC11A3B3-739D-4602-BE51-0FBB5C77D54C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3126326A-A5BE-4F46-8C10-04AA688695B8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="151">
-  <si>
-    <t>Menores según frecuencia de poder prestar atención en 2023 (Tasa respuesta: 50,16%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="146">
+  <si>
+    <t>Menores según frecuencia de poder prestar atención en 2023 (Tasa respuesta: 50,21%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -92,400 +92,385 @@
     <t>8-11</t>
   </si>
   <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -900,7 +885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD47B605-721F-4618-80D3-1AA0A26A6374}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A9FFF1-8F33-4118-8C81-202154FF11D5}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1562,10 +1547,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D16" s="7">
-        <v>94909</v>
+        <v>79170</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -1577,10 +1562,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="I16" s="7">
-        <v>79713</v>
+        <v>111539</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -1592,10 +1577,10 @@
         <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="N16" s="7">
-        <v>174622</v>
+        <v>190709</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>24</v>
@@ -1613,10 +1598,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D17" s="7">
-        <v>53067</v>
+        <v>39778</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -1628,10 +1613,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I17" s="7">
-        <v>43269</v>
+        <v>46732</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -1643,10 +1628,10 @@
         <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="N17" s="7">
-        <v>96336</v>
+        <v>86509</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>33</v>
@@ -1664,10 +1649,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D18" s="7">
-        <v>9859</v>
+        <v>11531</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -1679,10 +1664,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I18" s="7">
-        <v>4489</v>
+        <v>7075</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -1694,10 +1679,10 @@
         <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N18" s="7">
-        <v>14348</v>
+        <v>18607</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>42</v>
@@ -1715,10 +1700,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>1046</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -1730,34 +1715,34 @@
         <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>1752</v>
+        <v>3145</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>2799</v>
+        <v>3145</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1766,25 +1751,25 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>4758</v>
+        <v>808</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>55</v>
       </c>
       <c r="H20" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I20" s="7">
-        <v>3749</v>
+        <v>2836</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>56</v>
@@ -1796,19 +1781,19 @@
         <v>58</v>
       </c>
       <c r="M20" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>8507</v>
+        <v>3644</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>59</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,102 +1802,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>177</v>
+      </c>
+      <c r="D21" s="7">
+        <v>131287</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="7">
         <v>195</v>
       </c>
-      <c r="D21" s="7">
-        <v>163639</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="7">
-        <v>176</v>
-      </c>
       <c r="I21" s="7">
-        <v>132973</v>
+        <v>171327</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N21" s="7">
-        <v>296612</v>
+        <v>302614</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="D22" s="7">
-        <v>132514</v>
+        <v>136319</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>186</v>
+      </c>
+      <c r="I22" s="7">
+        <v>164985</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="7">
-        <v>185</v>
-      </c>
-      <c r="I22" s="7">
-        <v>141186</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>373</v>
+      </c>
+      <c r="N22" s="7">
+        <v>301304</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="M22" s="7">
-        <v>348</v>
-      </c>
-      <c r="N22" s="7">
-        <v>273699</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,49 +1906,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D23" s="7">
-        <v>88905</v>
+        <v>89526</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>94</v>
+      </c>
+      <c r="I23" s="7">
+        <v>87532</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H23" s="7">
-        <v>97</v>
-      </c>
-      <c r="I23" s="7">
-        <v>74970</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>186</v>
+      </c>
+      <c r="N23" s="7">
+        <v>177057</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M23" s="7">
-        <v>194</v>
-      </c>
-      <c r="N23" s="7">
-        <v>163875</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,43 +1957,43 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D24" s="7">
-        <v>17109</v>
+        <v>7567</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>12</v>
+      </c>
+      <c r="I24" s="7">
+        <v>14332</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H24" s="7">
-        <v>10</v>
-      </c>
-      <c r="I24" s="7">
-        <v>6208</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>23</v>
+      </c>
+      <c r="N24" s="7">
+        <v>21899</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="M24" s="7">
-        <v>29</v>
-      </c>
-      <c r="N24" s="7">
-        <v>23317</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>88</v>
@@ -2023,49 +2008,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>5411</v>
+        <v>3095</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>90</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="H25" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>1292</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3095</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M25" s="7">
-        <v>8</v>
-      </c>
-      <c r="N25" s="7">
-        <v>6703</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,49 +2059,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>10744</v>
+        <v>1544</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1549</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="K26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>5</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3093</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H26" s="7">
-        <v>5</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3809</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M26" s="7">
-        <v>13</v>
-      </c>
-      <c r="N26" s="7">
-        <v>14554</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,49 +2110,49 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D27" s="7">
-        <v>254684</v>
+        <v>238051</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H27" s="7">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="I27" s="7">
-        <v>227465</v>
+        <v>268398</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M27" s="7">
         <v>592</v>
       </c>
       <c r="N27" s="7">
-        <v>482148</v>
+        <v>506449</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,49 +2163,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="D28" s="7">
-        <v>227423</v>
+        <v>215489</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="7">
+        <v>314</v>
+      </c>
+      <c r="I28" s="7">
+        <v>276524</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>614</v>
+      </c>
+      <c r="N28" s="7">
+        <v>492013</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H28" s="7">
-        <v>293</v>
-      </c>
-      <c r="I28" s="7">
-        <v>220899</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M28" s="7">
-        <v>568</v>
-      </c>
-      <c r="N28" s="7">
-        <v>448321</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,49 +2214,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="D29" s="7">
-        <v>141972</v>
+        <v>129304</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="7">
+        <v>145</v>
+      </c>
+      <c r="I29" s="7">
+        <v>134263</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>284</v>
+      </c>
+      <c r="N29" s="7">
+        <v>263567</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="7">
-        <v>151</v>
-      </c>
-      <c r="I29" s="7">
-        <v>118239</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M29" s="7">
-        <v>311</v>
-      </c>
-      <c r="N29" s="7">
-        <v>260211</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,49 +2265,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D30" s="7">
-        <v>26968</v>
+        <v>19099</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" s="7">
+        <v>21</v>
+      </c>
+      <c r="I30" s="7">
+        <v>21407</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>48</v>
+      </c>
+      <c r="N30" s="7">
+        <v>40506</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H30" s="7">
-        <v>17</v>
-      </c>
-      <c r="I30" s="7">
-        <v>10697</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="M30" s="7">
-        <v>50</v>
-      </c>
-      <c r="N30" s="7">
-        <v>37665</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,49 +2316,49 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D31" s="7">
-        <v>6457</v>
+        <v>3095</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3145</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H31" s="7">
-        <v>4</v>
-      </c>
-      <c r="I31" s="7">
-        <v>3045</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>8</v>
+      </c>
+      <c r="N31" s="7">
+        <v>6239</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="L31" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M31" s="7">
-        <v>11</v>
-      </c>
-      <c r="N31" s="7">
-        <v>9502</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="Q31" s="7" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,49 +2367,49 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D32" s="7">
-        <v>15502</v>
+        <v>2352</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H32" s="7">
+        <v>6</v>
+      </c>
+      <c r="I32" s="7">
+        <v>4385</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="L32" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M32" s="7">
+        <v>10</v>
+      </c>
+      <c r="N32" s="7">
+        <v>6737</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H32" s="7">
-        <v>10</v>
-      </c>
-      <c r="I32" s="7">
-        <v>7559</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M32" s="7">
-        <v>23</v>
-      </c>
-      <c r="N32" s="7">
-        <v>23061</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,54 +2418,54 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="D33" s="7">
-        <v>418322</v>
+        <v>369338</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H33" s="7">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="I33" s="7">
-        <v>360438</v>
+        <v>439724</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M33" s="7">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="N33" s="7">
-        <v>778760</v>
+        <v>809062</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
